--- a/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_12_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.83729746921877</v>
+        <v>89.85907939337071</v>
       </c>
       <c r="D2" t="n">
-        <v>1.317748026887007</v>
+        <v>1.275691553469913</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.94006549949337</v>
+        <v>89.01355581107373</v>
       </c>
       <c r="D3" t="n">
-        <v>1.102571927405169</v>
+        <v>1.221118190106869</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.00681575336763</v>
+        <v>87.9521977335548</v>
       </c>
       <c r="D4" t="n">
-        <v>1.318951101546493</v>
+        <v>1.371533989568456</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.97416992962476</v>
+        <v>87.20981870105416</v>
       </c>
       <c r="D5" t="n">
-        <v>1.308811487494245</v>
+        <v>1.261303195239412</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.07456791932907</v>
+        <v>85.93803637592706</v>
       </c>
       <c r="D6" t="n">
-        <v>1.37300979715061</v>
+        <v>1.388113801233965</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.89860716318597</v>
+        <v>84.60218436884753</v>
       </c>
       <c r="D7" t="n">
-        <v>1.450020254964343</v>
+        <v>1.434046645921413</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.92556714850986</v>
+        <v>83.81528318317882</v>
       </c>
       <c r="D8" t="n">
-        <v>1.217119048484239</v>
+        <v>1.320515993340665</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.82171072211423</v>
+        <v>83.0751014344424</v>
       </c>
       <c r="D9" t="n">
-        <v>1.396729111030721</v>
+        <v>1.408571372864822</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.03169672744264</v>
+        <v>81.88920546269736</v>
       </c>
       <c r="D10" t="n">
-        <v>1.486465812293009</v>
+        <v>1.316662783775882</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.98147797375155</v>
+        <v>81.04037386991963</v>
       </c>
       <c r="D11" t="n">
-        <v>1.378090191874234</v>
+        <v>1.448731851504199</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.16305419256346</v>
+        <v>80.17471735140968</v>
       </c>
       <c r="D12" t="n">
-        <v>1.123530352431171</v>
+        <v>1.357721226830544</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.88524423334357</v>
+        <v>78.92329416863531</v>
       </c>
       <c r="D13" t="n">
-        <v>1.707567802265526</v>
+        <v>1.610823853770076</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.98699057491625</v>
+        <v>77.86929846135654</v>
       </c>
       <c r="D14" t="n">
-        <v>1.510879972550165</v>
+        <v>1.426973624267596</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.11572481230553</v>
+        <v>76.96082239296555</v>
       </c>
       <c r="D15" t="n">
-        <v>1.515032724859609</v>
+        <v>1.461858304224534</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.75516594136614</v>
+        <v>75.91565205269085</v>
       </c>
       <c r="D16" t="n">
-        <v>1.717226181791093</v>
+        <v>1.477073379653391</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.09933446030291</v>
+        <v>75.06247779284128</v>
       </c>
       <c r="D17" t="n">
-        <v>1.581353864174784</v>
+        <v>1.5758234979309</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.05190477848741</v>
+        <v>73.75391099607556</v>
       </c>
       <c r="D18" t="n">
-        <v>1.3003340876903</v>
+        <v>1.513117770367847</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.75648178525766</v>
+        <v>73.05320567565707</v>
       </c>
       <c r="D19" t="n">
-        <v>1.541127519208285</v>
+        <v>1.654520690414512</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.81289241415284</v>
+        <v>71.88927843294637</v>
       </c>
       <c r="D20" t="n">
-        <v>1.823489775229002</v>
+        <v>1.584606362821626</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.04550753637676</v>
+        <v>70.92225571533818</v>
       </c>
       <c r="D21" t="n">
-        <v>1.672974374585261</v>
+        <v>1.88582425683042</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.88267378384235</v>
+        <v>69.81345872909431</v>
       </c>
       <c r="D22" t="n">
-        <v>1.581613225285508</v>
+        <v>1.679643254109147</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.7656515663039</v>
+        <v>68.84796564152211</v>
       </c>
       <c r="D23" t="n">
-        <v>1.574189157782951</v>
+        <v>1.707357352516665</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.90640628182801</v>
+        <v>68.1541908710679</v>
       </c>
       <c r="D24" t="n">
-        <v>1.690246618977807</v>
+        <v>1.728839272027913</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.84841133750351</v>
+        <v>66.80876106254814</v>
       </c>
       <c r="D25" t="n">
-        <v>1.672829385799134</v>
+        <v>1.885676722816278</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.2384066779844</v>
+        <v>65.94282199641206</v>
       </c>
       <c r="D26" t="n">
-        <v>1.784330426355412</v>
+        <v>1.868899612764464</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.98882985175527</v>
+        <v>64.88085847751793</v>
       </c>
       <c r="D27" t="n">
-        <v>1.813298623336544</v>
+        <v>2.008571676577085</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.98233748152354</v>
+        <v>63.89740807200597</v>
       </c>
       <c r="D28" t="n">
-        <v>1.834657662570339</v>
+        <v>1.963621905830438</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.81909172922119</v>
+        <v>62.72624458128065</v>
       </c>
       <c r="D29" t="n">
-        <v>2.130122641134636</v>
+        <v>1.825524001093872</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.03518726797119</v>
+        <v>61.60019801548297</v>
       </c>
       <c r="D30" t="n">
-        <v>1.822412523711478</v>
+        <v>1.947191694775703</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.84774236845332</v>
+        <v>61.02738028016145</v>
       </c>
       <c r="D31" t="n">
-        <v>2.012351753863114</v>
+        <v>2.025653957212503</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.95559729260756</v>
+        <v>60.07727910755155</v>
       </c>
       <c r="D32" t="n">
-        <v>1.889384778460815</v>
+        <v>2.210929228090045</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.85653957661677</v>
+        <v>59.21193032034674</v>
       </c>
       <c r="D33" t="n">
-        <v>2.065682315739708</v>
+        <v>1.976125106662702</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.95408648556748</v>
+        <v>57.95342930195893</v>
       </c>
       <c r="D34" t="n">
-        <v>1.933359156907697</v>
+        <v>2.233886865105025</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.54120135521917</v>
+        <v>56.99597594846129</v>
       </c>
       <c r="D35" t="n">
-        <v>1.947802415960252</v>
+        <v>1.854720081623034</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.33695727982319</v>
+        <v>56.12182114691134</v>
       </c>
       <c r="D36" t="n">
-        <v>2.111572785601677</v>
+        <v>2.261017057906165</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.9899706370766</v>
+        <v>54.80303940789187</v>
       </c>
       <c r="D37" t="n">
-        <v>2.140613898756425</v>
+        <v>1.918137089170789</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.14283883910744</v>
+        <v>54.26533657493675</v>
       </c>
       <c r="D38" t="n">
-        <v>2.311031273913044</v>
+        <v>1.694398983651871</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.99454136439451</v>
+        <v>52.25905191654647</v>
       </c>
       <c r="D39" t="n">
-        <v>2.3783387338486</v>
+        <v>2.244353224830058</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.95930177168525</v>
+        <v>51.92684669423122</v>
       </c>
       <c r="D40" t="n">
-        <v>2.234605758362066</v>
+        <v>1.981652953986467</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.78151671599361</v>
+        <v>51.21015524038096</v>
       </c>
       <c r="D41" t="n">
-        <v>2.301761709069077</v>
+        <v>2.463813286025239</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.38139869692375</v>
+        <v>50.14378715077364</v>
       </c>
       <c r="D42" t="n">
-        <v>2.296035259205195</v>
+        <v>2.234287560481483</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.72320104800292</v>
+        <v>48.91299523850503</v>
       </c>
       <c r="D43" t="n">
-        <v>2.431956784336009</v>
+        <v>2.14513215182564</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.84867916481856</v>
+        <v>48.11737184720598</v>
       </c>
       <c r="D44" t="n">
-        <v>2.436355266747578</v>
+        <v>1.986577121207311</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.78298229155652</v>
+        <v>46.78838785085972</v>
       </c>
       <c r="D45" t="n">
-        <v>2.286915168381689</v>
+        <v>2.204007887321443</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.4406836151333</v>
+        <v>45.86552271667306</v>
       </c>
       <c r="D46" t="n">
-        <v>2.817988208075598</v>
+        <v>2.532498491635554</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.20201761988201</v>
+        <v>45.39187240383008</v>
       </c>
       <c r="D47" t="n">
-        <v>2.419944862126576</v>
+        <v>2.61571963285067</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.07477136224839</v>
+        <v>44.25499086863037</v>
       </c>
       <c r="D48" t="n">
-        <v>2.655385992203216</v>
+        <v>2.328456837903564</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.69447374338512</v>
+        <v>42.27093923224481</v>
       </c>
       <c r="D49" t="n">
-        <v>2.330132069846206</v>
+        <v>2.709541626376635</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.24647080393535</v>
+        <v>41.56800529354062</v>
       </c>
       <c r="D50" t="n">
-        <v>2.666667159458926</v>
+        <v>2.294639456672114</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.92705535789075</v>
+        <v>41.09249637506591</v>
       </c>
       <c r="D51" t="n">
-        <v>2.337890587069472</v>
+        <v>2.359168514082362</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.2758997145732</v>
+        <v>40.18432750699962</v>
       </c>
       <c r="D52" t="n">
-        <v>2.571276786157654</v>
+        <v>2.796945682979686</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.79572330565853</v>
+        <v>39.2730629081093</v>
       </c>
       <c r="D53" t="n">
-        <v>2.961686248992419</v>
+        <v>2.296597609133879</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.28972719846135</v>
+        <v>37.57116822973985</v>
       </c>
       <c r="D54" t="n">
-        <v>2.611031686683576</v>
+        <v>2.592004956631996</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.72110841866584</v>
+        <v>36.886018241902</v>
       </c>
       <c r="D55" t="n">
-        <v>2.480035504209578</v>
+        <v>2.716469003759319</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.79678530648785</v>
+        <v>35.44723843638589</v>
       </c>
       <c r="D56" t="n">
-        <v>2.599683206662371</v>
+        <v>3.106393125963127</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.06532740143142</v>
+        <v>34.92221293996926</v>
       </c>
       <c r="D57" t="n">
-        <v>3.149915235573144</v>
+        <v>2.683156213084049</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.71654788187798</v>
+        <v>33.87646322229423</v>
       </c>
       <c r="D58" t="n">
-        <v>2.850328657086931</v>
+        <v>2.72386973448581</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.01620914682463</v>
+        <v>32.78755530424885</v>
       </c>
       <c r="D59" t="n">
-        <v>2.791687881025333</v>
+        <v>2.960768602979051</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.84822523983267</v>
+        <v>32.46951000039295</v>
       </c>
       <c r="D60" t="n">
-        <v>2.944897279033665</v>
+        <v>2.802584592436974</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.79064478868446</v>
+        <v>30.66533297658605</v>
       </c>
       <c r="D61" t="n">
-        <v>2.762572937753423</v>
+        <v>2.779764186606333</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.77929470327503</v>
+        <v>29.86391082647629</v>
       </c>
       <c r="D62" t="n">
-        <v>2.393732986786069</v>
+        <v>2.782537130275633</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.87555829821464</v>
+        <v>28.99750060229955</v>
       </c>
       <c r="D63" t="n">
-        <v>2.854088557024482</v>
+        <v>2.331816462212872</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.48470638685413</v>
+        <v>28.20418684373596</v>
       </c>
       <c r="D64" t="n">
-        <v>2.551133904039002</v>
+        <v>2.941526537171723</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.87631262836645</v>
+        <v>26.7412718068636</v>
       </c>
       <c r="D65" t="n">
-        <v>2.811819376204696</v>
+        <v>2.653960387213692</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.52409341041121</v>
+        <v>25.82048009092219</v>
       </c>
       <c r="D66" t="n">
-        <v>2.914967694383404</v>
+        <v>3.062906395573454</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.06183721553317</v>
+        <v>25.52908867890238</v>
       </c>
       <c r="D67" t="n">
-        <v>2.985636153259734</v>
+        <v>2.634444272106932</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.64984791131394</v>
+        <v>24.27938076490288</v>
       </c>
       <c r="D68" t="n">
-        <v>2.924071412995543</v>
+        <v>3.312125449843512</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.7715648340925</v>
+        <v>21.86686320051972</v>
       </c>
       <c r="D69" t="n">
-        <v>3.400049176012498</v>
+        <v>2.964123094769463</v>
       </c>
     </row>
   </sheetData>
